--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(P)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(P).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(P)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(P).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pac
-Pachycereus - fam. Cactacées (Cactus)
+          <t>Pac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pachycereus - fam. Cactacées (Cactus)
 Pachycereus fulviceps
 Pachycereus gatesii
 Pachycereus gaumeri
@@ -526,12 +543,80 @@
 Pachycereus pecten-aboriginum
 Pachycereus pringlei
 Pachycereus schottii
-Pachycereus weberi
-Pal
-Palicourea
-Palicourea lasiorrachis
-Par
-Parodia - fam. Cactacées (Cactus)
+Pachycereus weberi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Palicourea
+Palicourea lasiorrachis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Par</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parodia - fam. Cactacées (Cactus)
 Parodia alacriportana
 Parodia allosiphon
 Parodia ayopayana
@@ -566,54 +651,161 @@
 Parodia setifera
 Parodia stuemeri
 Parodia sucinea
-Parodia werneri
-Pau
-Paubrasilia - fam. Fabacées
+Parodia werneri</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paubrasilia - fam. Fabacées
 Paubrasilia echinata - Pernambouc
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Pe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ped
-Pediocactus - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ped</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pediocactus - fam. Cactacées (Cactus)
 Pediocactus bradyi
 Pediocactus knowltonii
 Pediocactus paradinei
 Pediocactus peeblesianus
 Pediocactus sileri
-Pediocactus simpsonii
-Pel
-Pelecyphora - fam. Cactacées (Cactus)
+Pediocactus simpsonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pelecyphora - fam. Cactacées (Cactus)
 Pelecyphora aselliformis
-Pelecyphora strobiliformis
-Pen
-Peniocereus - fam. Cactacées (Cactus)
+Pelecyphora strobiliformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pen</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Peniocereus - fam. Cactacées (Cactus)
 Peniocereus castellae
 Peniocereus fosterianus
 Peniocereus greggii
@@ -628,9 +820,43 @@
 Peniocereus striatus
 Peniocereus tepalcatepecanus
 Peniocereus viperinus
-Peniocereus zopilotensis
-Per
-Pereskia - fam. Cactacées (Cactus)
+Peniocereus zopilotensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Per</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pereskia - fam. Cactacées (Cactus)
 Pereskia aculeata
 Pereskia aureiflora
 Pereskia bahiensis
@@ -662,37 +888,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ph</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pha
-Phaseolus - fam. Fabacées
-Phaseolus coccineus - Haricot d'Espagne
-Phr
-Phragmipedium - Orchidacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pha</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Phaseolus - fam. Fabacées
+Phaseolus coccineus - Haricot d'Espagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Phr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phragmipedium - Orchidacées
 Phragmipedium bessae
 Phragmipedium longifolium
 Phragmipedium sargentianum
@@ -700,34 +965,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Pi</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pil
-Pilosocereus - fam. Cactacées (Cactus)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pil</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pilosocereus - fam. Cactacées (Cactus)
 Pilosocereus albissimus
 Pilosocereus alensis
 Pilosocereus arrabidae
@@ -770,107 +1040,156 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Po</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pol
-Polaskia - fam. Cactacées (Cactus)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pol</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polaskia - fam. Cactacées (Cactus)
 Polaskia chende
 Polaskia chichipe
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Ps</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pse
-Pseudorhipsalis - fam. Cactacées (Cactus)
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pseudorhipsalis - fam. Cactacées (Cactus)
 Pseudorhipsalis acuminata
 Pseudorhipsalis alata
 Pseudorhipsalis himantoclada
-Pseudorhipsalis ramulosa
-Psi
-Psidium - Myrtacées
+Pseudorhipsalis ramulosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ps</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Psi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psidium - Myrtacées
 Psidium guajava - Goyavier
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Pt</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pte
-Pterocactus - fam. Cactacées (Cactus)
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pte</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pterocactus - fam. Cactacées (Cactus)
 Pterocactus araucanus
 Pterocactus australis
 Pterocactus fischeri
